--- a/foto_metadata.xlsx
+++ b/foto_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankindonesiagov-my.sharepoint.com/personal/mgalang_g_i_bi_go_id/Documents/developing-img-etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7E9D22E7F613C8A64DE37674F96E86CD4E6A4E45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815897E1-C987-4840-ADCD-A2FD60513C57}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_181182EAF613C8A64D63781545EA991D4F6A8E3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D6DFA1-1382-45BA-8D5C-58B89BDF4D35}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,13 +40,13 @@
     <t>size_gambar_kb</t>
   </si>
   <si>
-    <t>KDJMI_PROVINSI_JAMBI</t>
-  </si>
-  <si>
-    <t>RBBLI_RENOVASI_BESAR_PROVINSI_BALI</t>
-  </si>
-  <si>
-    <t>KPMOF_MODERN_OFFICE</t>
+    <t>KDJMI_PROVINSI JAMBI</t>
+  </si>
+  <si>
+    <t>RBBLI_RENOVASI BESAR PROVINSI BALI</t>
+  </si>
+  <si>
+    <t>KPMOF_MODERN OFFICE</t>
   </si>
   <si>
     <t>7</t>
@@ -55,76 +55,76 @@
     <t>9</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/1_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/2_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/3_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/4_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/5_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/6_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/7_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI_JAMBI/7/8_ed_Muhammad_Galang_Gard.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/1_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/2_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/3_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/4_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/5_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/6_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/7_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI_BESAR_PROVINSI_BALI/7/8_ed_Muhammad_Galang_Gard_1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/1_ed_Muhammad_Galang_Gard_2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/2_ed_Muhammad_Galang_Gard_2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/3_ed_Muhammad_Galang_Gard_2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/4_ed_Muhammad_Galang_Gard_2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/5_ed_Muhammad_Galang_Gard_2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/6_ed_Muhammad_Galang_Gard_2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/7_ed_Muhammad_Galang_Gard_2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN_OFFICE/9/8_ed_Muhammad_Galang_Gard_2.jpg</t>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/1_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/2_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/3_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/4_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/5_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/6_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/7_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KDJMI_PROVINSI JAMBI/7/8_ed_Muhammad_Galang_Gard.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/1_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/2_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/3_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/4_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/5_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/6_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/7_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/RBBLI_RENOVASI BESAR PROVINSI BALI/7/8_ed_Muhammad_Galang_Gard_1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/1_ed_Muhammad_Galang_Gard_2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/2_ed_Muhammad_Galang_Gard_2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/3_ed_Muhammad_Galang_Gard_2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/4_ed_Muhammad_Galang_Gard_2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/5_ed_Muhammad_Galang_Gard_2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/6_ed_Muhammad_Galang_Gard_2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/7_ed_Muhammad_Galang_Gard_2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DPAN-PETERPAN/developing-img-etl/main/weekly_photos/KPMOF_MODERN OFFICE/9/8_ed_Muhammad_Galang_Gard_2.jpg</t>
   </si>
   <si>
     <t>Pendatangan Section TC</t>
@@ -652,14 +652,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="162.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
